--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3985.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3985.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.273545000019938</v>
+        <v>1.122632145881653</v>
       </c>
       <c r="B1">
-        <v>2.720425184560585</v>
+        <v>1.8541339635849</v>
       </c>
       <c r="C1">
-        <v>4.970969605212356</v>
+        <v>6.380153179168701</v>
       </c>
       <c r="D1">
-        <v>3.306100951065584</v>
+        <v>3.29100775718689</v>
       </c>
       <c r="E1">
-        <v>1.327763081908401</v>
+        <v>1.331285953521729</v>
       </c>
     </row>
   </sheetData>
